--- a/jour32.xlsx
+++ b/jour32.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mbappe', 'Ruiz', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Alioui', 'Alioui', 'Sima', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Wooh']</t>
+    <t>['Alphonse', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Neymar', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Payet']</t>
+  </si>
+  <si>
+    <t>['Capelle']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Dante', 'Dante', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Jakobs', 'Maripan']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Danois']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Gigot', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Pelon', 'Silva']</t>
-  </si>
-  <si>
-    <t>['Mavididi']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Munetsi']</t>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Dallinga']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Odobert', 'Balde', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['David', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Roure', "N'Diaye"]</t>
+    <t>['Djiku', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Wieteska', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Autret', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Sakho', 'Sakho', 'Khazri']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -607,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -665,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,10 +674,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -686,7 +686,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,10 +732,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -744,7 +744,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,19 +761,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,19 +790,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/jour32.xlsx
+++ b/jour32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Alphonse', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Neymar', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
-  </si>
-  <si>
-    <t>['Capelle']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Dante', 'Dante', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Jakobs', 'Maripan']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Abdelhamid', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Cherki']</t>
+  </si>
+  <si>
+    <t>['Mollet']</t>
+  </si>
+  <si>
+    <t>['Ratao']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Sylla', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Salmier', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Sibide', 'Henrique', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Ramos']</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Wieteska', 'Maurer']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Autret', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Sakho', 'Sakho', 'Khazri']</t>
+    <t>['Germain', 'Savanier', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Corduan', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Maurer', 'Versini', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Sanson', 'Le_Marchand', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Balerdi', 'Bailly', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Santamaria']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -686,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -715,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -744,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -773,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -802,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,19 +822,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour32.xlsx
+++ b/jour32.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,112 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Abdelhamid', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Cherki']</t>
-  </si>
-  <si>
-    <t>['Mollet']</t>
-  </si>
-  <si>
-    <t>['Ratao']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Sylla', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Salmier', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Sibide', 'Henrique', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Ramos']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Ponceau', 'Matsima', 'Ponceau', 'Innocent']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Fonte', 'Burlet', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Aouar', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Roure']</t>
+  </si>
+  <si>
+    <t>['Munetsi']</t>
+  </si>
+  <si>
+    <t>['Maurer']</t>
+  </si>
+  <si>
+    <t>['Valencia']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
+    <t>Brest</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Germain', 'Savanier', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Corduan', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Maurer', 'Versini', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Sanson', 'Le_Marchand', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Balerdi', 'Bailly', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Santamaria']</t>
-  </si>
-  <si>
-    <t>['Brahimi']</t>
+    <t>['Tolisso', 'Tagliafico', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Capelle', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Girotto']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Le_Douaron', 'Elis', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Le_Fee', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Gonzalez', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Beka', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Lopez']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +537,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="B7">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>36</v>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
